--- a/data.xlsx
+++ b/data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,12 +415,6 @@
       <c r="Q1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -428,83 +422,56 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11 декабря 1898г.</t>
+          <t>Дата рождения:</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Место рождения:</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Варшава, Польша</t>
+          <t>Место проживания:</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t xml:space="preserve">Лагерное управление: </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Мытищи, Московская область, Россия (ранее РСФСР)</t>
+          <t>Национальность:</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Дата ареста:</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Кем приговорен:</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>полька</t>
+          <t>Приговор:</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>__ декабря 1931г.</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>дело прекращено 10 февраля 1932 года; освобождена</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
-</t>
-        </is>
-      </c>
+          <t>Книга Памяти:</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -512,17 +479,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20 октября 1882г.</t>
+          <t>2 сентября 1873г.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Московская область, Россия (ранее РСФСР)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Мариямпольский уезд, Литовская Республика (ранее Литва)</t>
+          <t>Москва, Россия (ранее РСФСР)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -532,12 +499,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Мытищи, Московская область, Россия (ранее РСФСР)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>__ __ 1919г.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -547,7 +514,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>еврей</t>
+          <t>содержался под стражей</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -557,38 +524,19 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>10 декабря 1931г.</t>
+          <t>__ __ 1928г.</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>дело прекращено 7 мая 1932 года; из-под стражи освобожден</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
-</t>
-        </is>
-      </c>
+          <t>лишен избирательных прав и выселен с женой и семьей сына из Москвы как бывший домовладелец</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -596,17 +544,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20 августа 1915г.</t>
+          <t>22 июля 1847г.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Париж, Французская Республика (Франция)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Саратовская область, Россия (ранее РСФСР)</t>
+          <t>Москва, Россия (ранее РСФСР)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -616,12 +564,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ломоносово село, Холмогорский район, Архангельская область, Россия (ранее РСФСР)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>__ сентября 1918г.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -631,7 +579,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>немец</t>
+          <t>содержался под стражей</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -641,38 +589,27 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>__ __ 1930г.</t>
+          <t>__ __ 1919г.</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>содержался под стражей</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>__ __ 1929г.</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>раскулачивание</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Учтен(а) в «Список репрессированных. Саратовская область»
-</t>
-        </is>
-      </c>
+          <t>выслан сначала в Загорск, затем в Дмитров</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -680,12 +617,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21 ноября 1908г.</t>
+          <t>__ __ 1905г.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Ворожба село, Лебединский район, Сумская область, Украина (ранее Украинская ССР)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -700,12 +637,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Москва, Россия (ранее РСФСР)</t>
+          <t>украинец</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>28 сентября 1939г.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -715,60 +652,22 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>еврей</t>
+          <t>к высшей мере наказания — расстрел</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>__ декабря 1932г.</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>3 года концлагеря</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>__ мая 1949г.</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>10 лет исправительно-трудового лагеря; освобожден в 1955 году с поражением в правах, амнистирован в 1956 году</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Учтен(а) в «Свидетели «Архипелага ГУЛАГ»»
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Учтен(а) в «Москва, расстрельный полигон Коммунарка»
+</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -776,17 +675,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>__ __ 1892г.</t>
+          <t>__ __ 1900г.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Латвийская Республика (Латвия)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Москва, Россия (ранее РСФСР)</t>
+          <t>Витебск, Витебская область, Республика Беларусь</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -796,12 +695,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Москва, Россия (ранее РСФСР)</t>
+          <t>латыш</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>14 сентября 1937г.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -811,48 +710,17 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>русский</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>30 июня 1940г.</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
           <t>к высшей мере наказания — расстрел</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Учтен(а) в «Москва, расстрельный полигон Коммунарка»
-</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -860,17 +728,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>25 ноября 1893г.</t>
+          <t>11 декабря 1898г.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Варшава, Польша</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Наборные Сыреси село, Атяшевский район, Республика Мордовия, Россия (ранее РСФСР)</t>
+          <t>Мытищи, Московская область, Россия (ранее РСФСР)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -880,12 +748,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Иркутск, Иркутская область, Россия (ранее РСФСР)</t>
+          <t>полька</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>__ декабря 1931г.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -895,48 +763,22 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>мордвин</t>
+          <t>дело прекращено 10 февраля 1932 года; освобождена</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>10 июня 1938г.</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>8 лет исправительно-трудовых лагерей</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Учтен(а) в «Жертвы репрессий Иркутской области. Том 4»
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -944,17 +786,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>__ __ __</t>
+          <t>20 октября 1882г.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Мариямпольский уезд, Литовская Республика (ранее Литва)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>неизвестно</t>
+          <t>Мытищи, Московская область, Россия (ранее РСФСР)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -964,12 +806,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>неизвестно</t>
+          <t>еврей</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>10 декабря 1931г.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -979,12 +821,13 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>дело прекращено 7 мая 1932 года; из-под стражи освобожден</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>__ __ __</t>
+          <t xml:space="preserve">Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -994,8 +837,6 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1003,17 +844,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>26 мая 1901г.</t>
+          <t>20 августа 1915г.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Саратовская область, Россия (ранее РСФСР)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Санкт-Петербург (ранее Ленинград), Россия (ранее РСФСР)</t>
+          <t>Ломоносово село, Холмогорский район, Архангельская область, Россия (ранее РСФСР)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1023,12 +864,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Санкт-Петербург (ранее Ленинград), Россия (ранее РСФСР)</t>
+          <t>немец</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>__ __ 1930г.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1038,60 +879,22 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>еврей</t>
+          <t>раскулачивание</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>__ __ 1932г.</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>сослан в Курск, где жил вместе с еще двумя художниками, Е.В. Сафоновым и С.М. Гершовым, арестованным по тому же делу, а также какое-то время вместе с Даниилом Хармсом</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>__ сентября 1941г.</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>10 лет исправительно-трудового лагеря</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Учтен(а) в «База данных «Воспоминания о ГУЛАГе и их авторы»»
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Учтен(а) в «Список репрессированных. Саратовская область»
+</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1099,32 +902,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>__ __ 1906г.</t>
+          <t>21 ноября 1908г.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Москва, Россия (ранее РСФСР)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Улан-Удэ (ранее Верхнеудинск), Республика Бурятия, Россия (ранее РСФСР)</t>
+          <t>Москва, Россия (ранее РСФСР)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Степной лагерь СТЕПлаг (ранее Особлаг №4, Джезказганский ИТЛ), Карагандинская область, Республика Казахстан</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Москва, Россия (ранее РСФСР)</t>
+          <t>еврей</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>__ декабря 1932г.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1134,7 +937,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>еврей</t>
+          <t>3 года концлагеря</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1144,38 +947,24 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>25 сентября 1937г.</t>
+          <t>__ мая 1949г.</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>10 лет исправительно-трудового лагеря; освобожден в 1955 году с поражением в правах, амнистирован в 1956 году</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>к высшей мере наказания — расстрел</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Учтен(а) в «Москва, расстрельный полигон Коммунарка»
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Учтен(а) в «Свидетели «Архипелага ГУЛАГ»»
+</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1183,17 +972,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>__ __ 1887г.</t>
+          <t>__ __ 1892г.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Москва, Россия (ранее РСФСР)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Владимир, Владимирская область, Россия (ранее РСФСР)</t>
+          <t>Москва, Россия (ранее РСФСР)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1203,12 +992,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Истра, Московская область, Россия (ранее РСФСР)</t>
+          <t>русский</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>30 июня 1940г.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1218,49 +1007,22 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>русская</t>
+          <t>к высшей мере наказания — расстрел</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>28 февраля 1938г.</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>к высшей мере наказания — расстрел</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Учтен(а) в «Москва, Бутовский полигон»
-Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Учтен(а) в «Москва, расстрельный полигон Коммунарка»
+</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1268,17 +1030,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>__ __ 1904г.</t>
+          <t>25 ноября 1893г.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Наборные Сыреси село, Атяшевский район, Республика Мордовия, Россия (ранее РСФСР)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Цицикар, Китайская Народная Республика (КНР) (ранее Китайская Республика)</t>
+          <t>Иркутск, Иркутская область, Россия (ранее РСФСР)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1288,12 +1050,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Новосибирск, Новосибирская область, Россия (ранее РСФСР)</t>
+          <t>мордвин</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>10 июня 1938г.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1303,39 +1065,22 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>русский</t>
+          <t>8 лет исправительно-трудовых лагерей</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>16 октября 1937г.</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>к высшей мере наказания — расстрел</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Учтен(а) в «Жертвы репрессий Иркутской области. Том 4»
+</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1343,17 +1088,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>29 апреля 1906г.</t>
+          <t>__ __ __</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>неизвестно</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Разумовка село, Запорожская область, Украина (ранее Украинская ССР)</t>
+          <t>неизвестно</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1363,54 +1108,24 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Новосибирск, Новосибирская область, Россия (ранее РСФСР)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>украинка</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>18 ноября 1937г.</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>к высшей мере наказания — расстрел</t>
-        </is>
-      </c>
+          <t>__ __ __</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1418,32 +1133,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>13 января 1891г.</t>
+          <t>26 мая 1901г.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Санкт-Петербург (ранее Ленинград), Россия (ранее РСФСР)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Мохнач село, Змиёвский район, Харьковская область, Украина (ранее Украинская ССР)</t>
+          <t>Санкт-Петербург (ранее Ленинград), Россия (ранее РСФСР)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Красноярский ИТЛ Краслаг, Канский район, Красноярский край, Россия (ранее РСФСР)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Санкт-Петербург (ранее Ленинград), Россия (ранее РСФСР)</t>
+          <t>еврей</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>__ __ 1932г.</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1453,7 +1168,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>поляк</t>
+          <t>сослан в Курск, где жил вместе с еще двумя художниками, Е.В. Сафоновым и С.М. Гершовым, арестованным по тому же делу, а также какое-то время вместе с Даниилом Хармсом</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1463,38 +1178,24 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>23 августа 1937г.</t>
+          <t>__ сентября 1941г.</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>10 лет исправительно-трудового лагеря</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>к высшей мере наказания — расстрел</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Учтен(а) в «Ленинградский мартиролог. Том 2»
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Учтен(а) в «База данных «Воспоминания о ГУЛАГе и их авторы»»
+</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1502,17 +1203,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>__ __ __</t>
+          <t>__ __ 1906г.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Улан-Удэ (ранее Верхнеудинск), Республика Бурятия, Россия (ранее РСФСР)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>неизвестно</t>
+          <t>Москва, Россия (ранее РСФСР)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1522,12 +1223,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Москва, Россия (ранее РСФСР)</t>
+          <t>еврей</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>25 сентября 1937г.</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1537,39 +1238,22 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>еврейка</t>
+          <t>к высшей мере наказания — расстрел</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>__ __ 1943г.</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>5 лет исправительно-трудового лагеря</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Учтен(а) в «Москва, расстрельный полигон Коммунарка»
+</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1577,17 +1261,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>14 апреля 1902г.</t>
+          <t>__ __ 1887г.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Владимир, Владимирская область, Россия (ранее РСФСР)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Рокишкис (ранее Ракишки), Литовская Республика (ранее Литва)</t>
+          <t>Истра, Московская область, Россия (ранее РСФСР)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1597,12 +1281,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Москва, Россия (ранее РСФСР)</t>
+          <t>русская</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>28 февраля 1938г.</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1612,39 +1296,5033 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>еврей</t>
+          <t>к высшей мере наказания — расстрел</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>8 июня 1941г.</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>к высшей мере наказания — расстрел</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Учтен(а) в «Москва, Бутовский полигон»
+Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>__ __ 1904г.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Цицикар, Китайская Народная Республика (КНР) (ранее Китайская Республика)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Новосибирск, Новосибирская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>16 октября 1937г.</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>29 апреля 1906г.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Разумовка село, Запорожская область, Украина (ранее Украинская ССР)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Новосибирск, Новосибирская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>украинка</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>18 ноября 1937г.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>13 января 1891г.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Мохнач село, Змиёвский район, Харьковская область, Украина (ранее Украинская ССР)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург (ранее Ленинград), Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>поляк</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>23 августа 1937г.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Ленинградский мартиролог. Том 2»
+</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>__ __ __</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>неизвестно</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>еврейка</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>__ __ 1943г.</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>5 лет исправительно-трудового лагеря</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>14 апреля 1902г.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Рокишкис (ранее Ракишки), Литовская Республика (ранее Литва)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>еврей</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>8 июня 1941г.</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>__ __ 1916г.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Варва посёлок городского типа, Черниговская область, Украина (ранее Украинская ССР)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>неизвестно</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>украинец</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>13 января 1937г.</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Москва, Бутовский полигон»
+Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>__ __ 1916г.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Берлин, Германия</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>немец</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>21 февраля 1938г.</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Москва, Бутовский полигон»
+Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>__ __ 1928г.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Львовская область, Украина (ранее Украинская ССР)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Дрогобыч, Львовская область, Украина (ранее Украинская ССР)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Тайшетский исправительно-трудовой лагерь ТАЙШЕТлаг, Иркутская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>украинец</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>__ __ 1947г.</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>25 лет исправительно-трудового лагеря</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>__ __ 1893г.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Бяла-Подляска, Люблинское воеводство, Польша</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>9 марта 1938г.</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>10 лет исправительно-трудового лагеря</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+Учтен(а) в «Последний адрес»
+</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>__ __ 1904г.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Турция</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург (ранее Ленинград), Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>армянин</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>5 февраля 1938г.</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Библиографический словарь репрессированных востоковедов»
+Учтен(а) в «Последний адрес»
+Учтен(а) в «Ленинградский мартиролог. Том 11»
+</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>5 августа 1895г.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Зейкари усадьба, Латвийская Республика (Латвия)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Дальстрой Главное Управление строительства Дальнего Севера НКВД СССР, Магаданская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Карагандинский исправительно-трудовой лагерь КАРлаг, Республика Казахстан</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>латыш</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>15 февраля 1935г.</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>5 лет исправительно-трудового лагеря</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>__ __ 1938г.</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+Учтен(а) в «Последний адрес»
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>25 марта 1879г.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>26 января 1930г.</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Москва, Ваганьковское кладбище»
+</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>__ __ 1889г.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Тарханово село, Гагинский район, Нижегородская область (ранее Горьковская), Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Красное село, Арзамасский район, Нижегородская область (ранее Горьковская), Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>11 октября 1937г.</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>__ __ 1904г.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Кировская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>неизвестно</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Восточный железнодорожный ИТЛ ВОСТлаг (ранее Востоклаг, Востлаг), Хабаровский край, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Амурский железнодорожный исправительно-трудовой лагерь Амурлаг, Амурская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>4 ноября 1937г.</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>10 лет исправительно-трудового лагеря</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>__ __ 1909г.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Скатовка село (ранее Штрауб), Ровенский район, Саратовская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Скатовка село (ранее Штрауб), Ровенский район, Саратовская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>__ августа 1941г.</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>спецпоселение</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3 апреля 1906г.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Скатовка село (ранее Штрауб), Ровенский район, Саратовская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Скатовка село (ранее Штрауб), Ровенский район, Саратовская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>немец</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>__ августа 1941г.</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>спецпоселение</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>28 апреля 1892г.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Большое Алешино деревня, Рыбновский район, Рязанская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Орехово-Зуево, Московская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>4 декабря 1937г.</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>__ __ 1938г.</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>20 августа 1903г.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Мозырский район, Гомельская область, Республика Беларусь</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>еврей</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>15 мая 1929г.</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>3 года ссылки</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>7 марта 1948г.</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>8 лет исправительно-трудовых лагерей</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>__ __ 1903г.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург (ранее Ленинград), Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург (ранее Ленинград), Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>русская</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>8 декабря 1937г.</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Ленинградский мартиролог. Том 10»
+</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>24 мая 1893г.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Тбилиси, Грузия (ранее Грузинская ССР)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Баку, Азербайджанская Республика</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>азербайджанец</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>__ __ 1933г.</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>находилась под следствием; освобождена</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>17 марта 1938г.</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>18 января 1907г.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Лукоянов, Нижегородская область (ранее Горьковская), Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург (ранее Ленинград), Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>__ декабря 1933г.</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>3 года исправительно-трудового лагеря</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>15 мая 1879г.</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Оброчное село, Ичалковский район, Республика Мордовия, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Оброчное село, Ичалковский район, Республика Мордовия, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>__ __ 1922г.</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>заключение в концлагерь; освобожден в 1927 году</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>19 ноября 1928г.</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>5 лет концлагеря</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>__ __ 1945г.</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>5 лет исправительно-трудового лагеря</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>9 июня 1868г.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Лутово село, Воловский район, Тульская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Алупка, Республика Крым</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>__ января 1921г.</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Автономная Республика Крым. Том 6»
+</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>31 августа 1892г.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Шишковердь село, Княгининский район, Нижегородская область (ранее Горьковская), Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Берендеевка село, Лысковский район, Нижегородская область (ранее Горьковская), Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>15 сентября 1937г.</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Список репрессированных священнослужителей Нижегородской епархии»
+</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>__ __ 1886г.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Сырятино село, Починковский район, Нижегородская область (ранее Горьковская), Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Доскино ж/д станция и посёлок (ранее Орловка), Нижегородская область (ранее Горьковская), Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>29 октября 1937г.</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Список репрессированных священнослужителей Нижегородской епархии»
+</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>__ __ 1895г.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Новомочалей село, Пильнинский район, Нижегородская область (ранее Горьковская), Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Новомочалей село, Пильнинский район, Нижегородская область (ранее Горьковская), Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>татарин</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>17 августа 1942г.</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>находился под следствием; умер в тюрьме</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>__ __ 1905г.</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Орел, Орловская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>русская</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>13 декабря 1941г.</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>дело прекращено, направлена на принудительное лечение в психиатрическую больницу; освобождена 14 января 1947 года</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>__ __ 1898г.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Таруса, Калужская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Каменский ИТЛ КАМЕНлаг (ранее Ново-Каменский ИТЛ), Саратовская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>18 апреля 1942г.</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>8 лет лишение свободы с поражением в правах на 3 года и конфискацией имущества; приговор отменен 10 марта 1944 года</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>__ __ 1877г.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Кензино село, Ухоловский район, Рязанская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>18 апреля 1942г.</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>6 лет исправительно-трудового лагеря с поражением в правах на 2 года и конфискацией имущества</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>__ __ 1884г.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Рязанская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>27 апреля 1942г.</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>10 лет исправительно-трудового лагеря, с поражением в правах на 5 лет и конфискацией имущества</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>__ __ 1912г.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Воронежская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>неизвестно</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>__ __ 1937г.</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Москва, Бутовский полигон»
+</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>__ __ 1918г.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Полящицы деревня, Горецкий район, Могилёвская область, Республика Беларусь</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>10 августа 1937г.</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Москва, Бутовский полигон»
+Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>__ __ 1878г.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Полящицы деревня, Горецкий район, Могилёвская область, Республика Беларусь</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>11 августа 1937г.</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Москва, Бутовский полигон»
+Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>__ __ 1912г.</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Полящицы деревня, Горецкий район, Могилёвская область, Республика Беларусь</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>11 августа 1937г.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Москва, Бутовский полигон»
+Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>__ __ 1890г.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Мухоедово село, Дальнеконстантиновский район, Нижегородская область (ранее Горьковская), Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Балахна, Нижегородская область (ранее Горьковская), Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Минеральный лагерь МИНлаг (ранее Особый лагерь № 1, Особлаг № 1, позже (с 10.05.1948) Минеральный ИТЛ), Республика Коми, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>__ __ 1949г.</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>10 лет исправительно-трудового лагеря</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Книга памяти Нижегородской области. Том 2»
+</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>__ __ 1916г.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Лейпциг, Германия</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>немец</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>21 февраля 1938г.</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Возвращенные имена. Москва и Московская область»
+Учтен(а) в «Москва, Бутовский полигон»
+Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>__ __ 1916г.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург (ранее Ленинград), Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>латыш</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>9 февраля 1938г.</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Ленинградский мартиролог. Том 12»
+Учтен(а) в «Москва, Бутовский полигон»
+Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>__ __ 1916г.</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Киевская область, Украина (ранее Украинская ССР)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>поляк</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>28 февраля 1938г.</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Москва, Бутовский полигон»
+Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>__ __ 1917г.</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Щербаковка село, Камышинский район, Волгоградская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Волоколамский район, Московская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>немец</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>6 января 1938г.</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Москва, Бутовский полигон»
+Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>__ июня 1906г.</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Пушкари деревня, Новомосковский район, Тульская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Северо-Восточный исправительно-трудовой лагерь (ранее УСВИТЛ, Управление Северо-Восточных исправительно-трудовых лагерей, СВИТЛ, Северо-Восточный ИТЛ), Магаданская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>23 июля 1937г.</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>8 лет исправительно-трудовых лагерей с поражением в правах на 3 года; приговор отменен 15 ноября 1939 года постановлением Верховного суда РСФСР</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Возвращенные имена. Москва и Московская область»
+Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>__ __ 1907г.</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Бисерово село, Ногинский район, Московская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>15 октября 1936г.</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>дело прекращено 13 мая 1938 года, освобожден</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>__ __ 1913г.</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Дрозды деревня, Круглянский район, Могилёвская область, Республика Беларусь</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Старое Село деревня, Можайский район, Московская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>беларус</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>21 июня 1942г.</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>дело прекращено  29 сентября 1942 года; из-под стражи освобожден</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>__ __ 1899г.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Одинцово, Московская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Одинцово, Московская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>6 июля 1937г.</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Москва, Бутовский полигон»
+</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>__ __ 1900г.</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Тульская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>русская</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>25 февраля 1938г.</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Москва, Бутовский полигон»
+</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>__ __ 1909г.</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Хони (ранее Цулукидзе (1936-1989)), Грузия (ранее Грузинская ССР)</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Тбилиси, Грузия (ранее Грузинская ССР)</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>грузин</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>26 октября 1936г.</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>__ __ 1905г.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Хони (ранее Цулукидзе (1936-1989)), Грузия (ранее Грузинская ССР)</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Тбилиси, Грузия (ранее Грузинская ССР)</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>грузин</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>31 октября 1936г.</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>__ __ 1903г.</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Хони (ранее Цулукидзе (1936-1989)), Грузия (ранее Грузинская ССР)</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Тбилиси, Грузия (ранее Грузинская ССР)</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>грузин</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>26 октября 1936г.</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>30 июня 1911г.</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Тбилиси, Грузия (ранее Грузинская ССР)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>грузин</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>17 апреля 1937г.</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>__ __ __</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>неизвестно</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Тбилиси, Грузия (ранее Грузинская ССР)</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>__ __ 1937г.</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>23 сентября 1882г.</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Великий Новгород (ранее Новгород до 1999 года), Новгородская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург (ранее Ленинград), Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>10 мая 1949г.</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>25 лет исправительно-трудового лагеря</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Репрессированные геологи»
+</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>__ __ 1895г.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Пермь (ранее Молотов), Пермский край, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Томск, Томская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>русская</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>3 сентября 1937г.</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>8 лет исправительно-трудовых лагерей, как ЧСИР</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Боль людская. Том 1»
+Учтен(а) в «Книга памяти Томской области. Том первый. А-И.»
+</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>11 ноября 1890г.</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Пенза, Пензенская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Томск, Томская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>29 августа 1936г.</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Боль людская. Том 1»
+Учтен(а) в «Книга памяти Томской области. Том первый. А-И.»
+Учтен(а) в «Репрессированные геологи»
+Учтен(а) в «Книга памяти Новосибирской области. Том 5»
+</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>__ __ 1887г.</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Царев, Волгоградская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>17 февраля 1938г.</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>__ __ 1885г.</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Грузия (ранее Грузинская ССР)</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>грузин</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>13 сентября 1941г.</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>16 сентября 1942 года дело прекращено за смертью обвиняемого</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>__ __ 1913г.</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Андреевское деревня, Можайский район, Московская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Борисово село, Можайский район, Московская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>3 мая 1942г.</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>дело прекращено, направлен на принудительное лечение в психиатрическую больницу</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>__ __ 1904г.</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Комаром, Венгрия</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>венгр</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>14 марта 1938г.</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Москва, Бутовский полигон»
+</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>__ __ 1904г.</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Рига, Латвийская Республика (Латвия)</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>латыш</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>23 марта 1938г.</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Возвращенные имена. Москва и Московская область»
+Учтен(а) в «Москва, Бутовский полигон»
+</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>__ __ 1904г.</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Кошелевка село, Пулинский район, Житомирская область, Украина (ранее Украинская ССР)</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Андреевка деревня, Коломенский район, Московская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>поляк</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>14 марта 1938г.</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Москва, Бутовский полигон»
+</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>__ __ 1877г.</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Хони (ранее Цулукидзе (1936-1989)), Грузия (ранее Грузинская ССР)</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Тбилиси, Грузия (ранее Грузинская ССР)</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>грузин</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>__ __ 1928г.</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>3 года ссылки в Сибирь; в 1929 году наказание заменили 3 годами лишения свободы</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>__ __ 1936г.</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Книга Памяти жертв политических репрессий на Орловщине. Том 2.»
+</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>__ __ 1906г.</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Лодзь, Лодзинское воеводство, Польша</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург (ранее Ленинград), Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>еврей</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>11 января 1937г.</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Ленинградский мартиролог. Том 4»
+Учтен(а) в «Библиографический словарь репрессированных востоковедов»
+</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2 сентября 1897г.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Могилёв, Могилёвская область, Республика Беларусь</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Казань, Республика Татарстан, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>еврей</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>26 января 1937г.</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>10 лет исправительно-трудового лагеря</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>16 февраля 1949г.</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>к ссылке на 5 лет в Красноярский край</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>__ __ 1923г.</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Московская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Московская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>25 февраля 1942г.</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>дело прекращено, освобожден</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>19 февраля 1893г.</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Ижемский район, Республика Коми, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Бамлаг (Байкало-Амурский исправительно-трудовой лагерь), Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>коми</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>27 августа 1937г.</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>8 лет исправительно-трудовых лагерей; приговор отменен постановление тройки при Управления НКВД по Московской области 20 мая 1938 года</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Возвращенные имена. Москва и Московская область»
+Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>__ __ 1894г.</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Саратов, Саратовская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Саратов, Саратовская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>10 ноября 1941г.</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>5 лет исправительно-трудового лагеря</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>12 июля 1912г.</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Махровка село, Борисоглебский район, Воронежская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Ухто-Ижемский исправительно-трудовой лагерь Ухтижемлаг, Республика Коми, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>28 августа 1937г.</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>10 лет исправительно-трудового лагеря; приговор отменен 31 января 1940 года на основании директивы НКВД и прокурора СССР №001469 от 11 декабря 1939 года</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Возвращенные имена. Москва и Московская область»
+Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>24 сентября 1894г.</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Орехово-Зуевский район, Московская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Орехово-Зуевский район, Московская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>6 октября 1937г.</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>10 лет исправительно-трудового лагеря; приговор отменен 8 октября 1939 года на основании директивы НКВД и прокурора СССР №2709 от 26 декабря 1938 года</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>__ __ 1913г.</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Алексеевка деревня, Навлинский район, Брянская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Коломна, Московская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Волжский исправительно-трудовой лагерь подразделение Дмитровлага (ранее Волголаг, Волгострой), Ярославская область (ранее Ярославский край), Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>4 октября 1937г.</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>10 лет исправительно-трудового лагеря;  приговор отменен 16 января 1940 года на основании директивы НКВД и прокурора СССР №2709 от 26 декабря 1938 года и статьи 221 УПК</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>__ __ 1885г.</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Ойцово деревня, Берестовицкий район, Гродненская область, Республика Беларусь</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>30 сентября 1937г.</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>10 лет исправительно-трудового лагеря;  приговор отменен 10 октября 1939 года на основании директивы НКВД и прокурора СССР №2709 от 26 декабря 1938 года</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Возвращенные имена. Москва и Московская область»
+Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>__ __ 1904г.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Челябинская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Аргаяшский район, Челябинская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>башкир</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>__ __ 1937г.</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>спецпоселение</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>__ __ 1892г.</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>20 сентября 1937г.</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>__ __ 1907г.</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург (ранее Ленинград), Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Болшево микрорайон, Королев, Московская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>19 января 1938г.</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Ленинградский мартиролог. Том 12»
+Учтен(а) в «Москва, Бутовский полигон»
+Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>7 октября 1889г.</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Архангельск, Архангельская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Архангельск, Архангельская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>__ марта 1920г.</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>работы в концентрационном лагере были заменены на условный срок (по ходатайству Архангельского губернского Совета народного хозяйства № 425 от 20.03.1920 года)</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>__ __ 1927г.</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>находился под следствием</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>10 августа 1937г.</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>__ __ 1907г.</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Шемышейка посёлок городского типа, Пензенская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>8 сентября 1937г.</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Москва, Бутовский полигон»
+</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>__ __ 1897г.</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Эстонская Республика (Эстония)</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург (ранее Ленинград), Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>эстонец</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>__ __ 1937г.</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Ленинградский мартиролог. Том 8»
+</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>__ __ 1906г.</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Курессааре (ранее Аренсбург, Кингисепп), Эстонская Республика (Эстония)</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>эстонец</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>27 ноября 1937г.</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Москва, Бутовский полигон»
+Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>__ __ 1906г.</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Латвийская Республика (Латвия)</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>латышка</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>19 января 1938г.</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Москва, Бутовский полигон»
+Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>__ __ 1906г.</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Варшава, Польша</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Воскресенск, Московская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>еврей</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>23 августа 1937г.</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрел</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Москва, Бутовский полигон»
+</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>__ __ 1896г.</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>неизвестно</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Улан-Удэ (ранее Верхнеудинск), Республика Бурятия, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>венгр</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>11 августа 1938г.</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>находился под следствием</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2 января 1896г.</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Хиршберг, Германия</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Днепр (ранее Днепропетровск), Украина (ранее Украинская ССР)</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>судетский немец</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>11 декабря 1936г.</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>ВМН (расстрел), приговор изменен Военной коллегией Верховного суда 5 июля 1937 года на 10 лет исправительно-трудовых работ</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Дніпропетровська область. Книга 2»
+</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>__ __ 1914г.</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Ортатюбе аул, Ногайский район, Республика Дагестан, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>неизвестно</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>нагаец</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>__ июля 1945г.</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>С 1945 по 28 января 1952 состоял на учете в спецпоселении в Иркутской области</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>31 мая 1862г.</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Уфа, Республика Башкортостан, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>__ __ 1938г.</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">находился под стражей; дело прекращено </t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>26 февраля 1892г.</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Воронеж, Воронежская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Воронеж, Воронежская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>7 ноября 1920г.</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>к 2 годам концлагеря</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>25 октября 1926г.</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург (ранее Ленинград), Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>русская</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>__ __ 1978г.</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>по политическим мотивам была лишёна гражданства СССР</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>27 марта 1927г.</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Баку, Азербайджанская Республика</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>__ __ 1978г.</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>по политическим мотивам был лишён гражданства СССР</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>12 марта 1891г.</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Ильинский район, Ивановская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Ченцы деревня, Ильинский район, Ивановская область, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>русский</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>5 сентября 1937г.</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>к высшей мере наказания — расстрелу с конфискацией лично ему принадлежащего имущества</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>__ __ 1884г.</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Москва, Россия (ранее РСФСР)</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Берлин, Германия</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>еврей</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>31 января 1947г.</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>10 лет исправительно-трудового лагеря, с поражением в правах на 5 лет</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Учтен(а) в «Следственные дела УКГБ по Москве и Московской области»
+</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
